--- a/webterview_be/src/main/resources/example/평가표.xlsx
+++ b/webterview_be/src/main/resources/example/평가표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abcd_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D1551F-1EEA-440F-94F8-19FD36A39CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C974F3B6-A18D-490B-86E5-DCD2B7C2702C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -425,30 +425,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
